--- a/src/main/resources/Legacy_Data_v0.xlsx
+++ b/src/main/resources/Legacy_Data_v0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp.sharepoint.com/teams/LAPR3-LEI-ISEP365Group/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitbucket\lapr3_2023_24_g94\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{42ECA224-C9D3-4765-853C-C97675A101E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89788BED-86D2-42EA-9655-E7EB54DDB36C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5AFBE-6938-4352-8550-223A1DED14EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24456" windowHeight="14472" activeTab="2" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3411,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B01B56-4BBE-4836-8DCB-B3AF8DABE0BB}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3423,7 +3423,7 @@
     <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>250</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>301</v>
       </c>
@@ -3619,16 +3619,12 @@
       </c>
       <c r="E12" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L16">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4996,6 +4992,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5004,25 +5006,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D44D720-87D2-456F-95E0-B8806C1F4D1B}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D44D720-87D2-456F-95E0-B8806C1F4D1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="caec8013-4252-46d5-9263-a99cc59dead2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5035,4 +5037,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>